--- a/Documents/20191003_SWD Colony Tracker.xlsx
+++ b/Documents/20191003_SWD Colony Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E6A48F-F99D-44EC-8ADD-3986FF357139}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2A8F9-D4C5-41B4-A5C4-05C8AF28B9F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="135" windowWidth="8235" windowHeight="15165" xr2:uid="{47845039-4206-407D-9964-41BF22ECA1F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47845039-4206-407D-9964-41BF22ECA1F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>A0</t>
   </si>
@@ -171,9 +171,6 @@
     <t>20191012</t>
   </si>
   <si>
-    <t>20191013</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
@@ -334,6 +331,15 @@
   </si>
   <si>
     <t>bottle</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -698,95 +704,100 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20190905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20190905</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20190905</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20190905</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20190923</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>4</v>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>20190923</v>
@@ -794,7 +805,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>20190923</v>
@@ -802,23 +813,23 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>20190923</v>
+        <v>20190924</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>20190924</v>
+        <v>20190925</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>5</v>
+      <c r="A14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>20190925</v>
@@ -826,7 +837,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>20190925</v>
@@ -834,7 +845,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>20190925</v>
@@ -842,7 +853,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>20190925</v>
@@ -850,15 +861,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>20190925</v>
+        <v>20190926</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>20190926</v>
@@ -866,15 +877,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>20190926</v>
+        <v>20190927</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>20190927</v>
@@ -883,18 +900,18 @@
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>20190927</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>98</v>
@@ -902,75 +919,75 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>20190927</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>20190927</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>20190927</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>20190927</v>
+        <v>20190928</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
-        <v>20190928</v>
+        <v>20190929</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20190929</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20190930</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>20190930</v>
@@ -978,10 +995,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1">
-        <v>20190930</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,20 +1006,20 @@
         <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20190930</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>20190930</v>
@@ -1010,7 +1027,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1">
         <v>20190930</v>
@@ -1018,7 +1035,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1">
         <v>20190930</v>
@@ -1026,18 +1043,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
-        <v>20190930</v>
+        <v>20191001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1">
-        <v>20191001</v>
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1062,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,20 +1078,20 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20191002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>20191002</v>
@@ -1082,7 +1099,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>20191002</v>
@@ -1090,7 +1107,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1">
         <v>20191002</v>
@@ -1098,7 +1115,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1">
         <v>20191002</v>
@@ -1106,7 +1123,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
         <v>20191002</v>
@@ -1114,18 +1131,18 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1">
-        <v>20191002</v>
+        <v>20191003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="1">
-        <v>20191003</v>
+        <v>56</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1150,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1158,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1166,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1174,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1182,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1198,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,15 +1206,15 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1222,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1230,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1246,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1254,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1262,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,15 +1270,15 @@
         <v>73</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1286,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,23 +1294,23 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1301,7 +1318,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1326,7 @@
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,7 +1334,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1325,7 +1342,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,20 +1350,20 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>43</v>
@@ -1362,7 +1379,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>43</v>
@@ -1370,7 +1387,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>43</v>
@@ -1434,7 +1451,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>43</v>
@@ -1442,14 +1459,30 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="31" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/20191003_SWD Colony Tracker.xlsx
+++ b/Documents/20191003_SWD Colony Tracker.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2A8F9-D4C5-41B4-A5C4-05C8AF28B9F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7203F1-FEAE-4447-9151-29C0E082FE8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47845039-4206-407D-9964-41BF22ECA1F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$148</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>A0</t>
   </si>
@@ -370,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -378,13 +381,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,785 +728,1019 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112:D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="16.140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16.140625" style="3"/>
+    <col min="5" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>20190905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>20190905</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>20190923</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>20190923</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>20190923</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>20190924</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>20190925</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>20190925</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>20190925</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>20190925</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>20190925</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>20190926</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>20190926</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>20190927</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>20190927</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>20190927</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>20190927</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>20190927</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>20190927</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>20190928</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>20190929</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>20190930</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>20191001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>20191002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>20191003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="3" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>